--- a/Exercise-3/Ex1/Gaussian_Blur_MPI.xlsx
+++ b/Exercise-3/Ex1/Gaussian_Blur_MPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parallel Systems and Programming\Programming Exercises\Exercise 3\Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D670918E-F454-4AFF-AA4F-14716E70F6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914DD222-D3D9-4AA6-A299-6E46C253B195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7157EFE1-E2AC-4E12-94A8-BADE8697A8F1}"/>
   </bookViews>
@@ -115,6 +115,3542 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Gaussian Blur MPI running time</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Μέσος Όρος</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8770778652668416E-2"/>
+                  <c:y val="-3.2372776319626713E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-78EF-429A-85FC-B3F9F74249EC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8333333333333334E-2"/>
+                  <c:y val="-6.0150554097404489E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-78EF-429A-85FC-B3F9F74249EC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Φύλλο1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Φύλλο1!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>3.3736597499999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1238044999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8975595000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78EF-429A-85FC-B3F9F74249EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1905967552"/>
+        <c:axId val="1905965888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1905967552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t># Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905965888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="8"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1905965888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905967552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Gaussian Blur MPI running time</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR" sz="1400">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Μέσος Όρος</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.321522309711286E-2"/>
+                  <c:y val="4.1701297754447274E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A19E-4C38-B0BC-B968EEDA06E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9558398950131342E-2"/>
+                  <c:y val="-5.0891294838145251E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A19E-4C38-B0BC-B968EEDA06E4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Φύλλο1!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Φύλλο1!$F$13:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>0.20262425000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53185800000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.060084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A19E-4C38-B0BC-B968EEDA06E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="258714496"/>
+        <c:axId val="109825600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="258714496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t># Processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109825600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="8"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="109825600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258714496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gaussian Blur MPI running time</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Μέσος Όρος</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8770778652668416E-2"/>
+                  <c:y val="-4.5949985418489358E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-EB33-440E-8892-265AA85AA745}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3888888888888884E-2"/>
+                  <c:y val="-8.7928331875182356E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EB33-440E-8892-265AA85AA745}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Φύλλο1!$A$21:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Φύλλο1!$F$21:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>3.1717277500000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5919465000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83747549999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB33-440E-8892-265AA85AA745}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="256053536"/>
+        <c:axId val="256053952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="256053536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t># Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256053952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="8"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="256053952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256053536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E030EE4A-EAAC-1303-DFD4-3EF2B73D4E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Γράφημα 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69399930-2161-CA65-DA62-06570900AB36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1478280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Γράφημα 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E9D6B0-3F99-21F3-DAF4-1F7D214F5752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,8 +3952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5C7A88-CBDA-4F3D-808F-F70482D3E73D}">
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,27 +3990,63 @@
       <c r="A4">
         <v>8</v>
       </c>
-      <c r="F4" t="e">
+      <c r="B4">
+        <v>3.394101</v>
+      </c>
+      <c r="C4">
+        <v>3.3405480000000001</v>
+      </c>
+      <c r="D4">
+        <v>3.3545669999999999</v>
+      </c>
+      <c r="E4">
+        <v>3.4054229999999999</v>
+      </c>
+      <c r="F4">
         <f>AVERAGE(B4,C4,D4,E4)</f>
-        <v>#DIV/0!</v>
+        <v>3.3736597499999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
-      <c r="F5" t="e">
+      <c r="B5">
+        <v>2.2125970000000001</v>
+      </c>
+      <c r="C5">
+        <v>2.0325470000000001</v>
+      </c>
+      <c r="D5">
+        <v>2.1245949999999998</v>
+      </c>
+      <c r="E5">
+        <v>2.1254789999999999</v>
+      </c>
+      <c r="F5">
         <f>AVERAGE(B5,C5,D5,E5)</f>
-        <v>#DIV/0!</v>
+        <v>2.1238044999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>32</v>
       </c>
-      <c r="F6" t="e">
+      <c r="B6">
+        <v>1.9956210000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.956321</v>
+      </c>
+      <c r="D6">
+        <v>1.842654</v>
+      </c>
+      <c r="E6">
+        <v>1.795642</v>
+      </c>
+      <c r="F6">
         <f>AVERAGE(B6,C6,D6,E6)</f>
-        <v>#DIV/0!</v>
+        <v>1.8975595000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,27 +4078,63 @@
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="F14" t="e">
+      <c r="B14">
+        <v>0.207015</v>
+      </c>
+      <c r="C14">
+        <v>0.20458699999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.195248</v>
+      </c>
+      <c r="E14">
+        <v>0.20364699999999999</v>
+      </c>
+      <c r="F14">
         <f>AVERAGE(B14,C14,D14,E14)</f>
-        <v>#DIV/0!</v>
+        <v>0.20262425000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
-      <c r="F15" t="e">
+      <c r="B15">
+        <v>0.50321400000000005</v>
+      </c>
+      <c r="C15">
+        <v>0.51658300000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.56548699999999996</v>
+      </c>
+      <c r="E15">
+        <v>0.54214799999999996</v>
+      </c>
+      <c r="F15">
         <f>AVERAGE(B15,C15,D15,E15)</f>
-        <v>#DIV/0!</v>
+        <v>0.53185800000000005</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>32</v>
       </c>
-      <c r="F16" t="e">
+      <c r="B16">
+        <v>1.084622</v>
+      </c>
+      <c r="C16">
+        <v>1.2015480000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.99542299999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.95874300000000001</v>
+      </c>
+      <c r="F16">
         <f>AVERAGE(B16,C16,D16,E16)</f>
-        <v>#DIV/0!</v>
+        <v>1.060084</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -558,27 +4166,63 @@
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="F22" t="e">
+      <c r="B22">
+        <v>3.187087</v>
+      </c>
+      <c r="C22">
+        <v>3.135961</v>
+      </c>
+      <c r="D22">
+        <v>3.1620870000000001</v>
+      </c>
+      <c r="E22">
+        <v>3.2017760000000002</v>
+      </c>
+      <c r="F22">
         <f>AVERAGE(B22,C22,D22,E22)</f>
-        <v>#DIV/0!</v>
+        <v>3.1717277500000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>16</v>
       </c>
-      <c r="F23" t="e">
+      <c r="B23">
+        <v>1.7093830000000001</v>
+      </c>
+      <c r="C23">
+        <v>1.5159640000000001</v>
+      </c>
+      <c r="D23">
+        <v>1.5591079999999999</v>
+      </c>
+      <c r="E23">
+        <v>1.583331</v>
+      </c>
+      <c r="F23">
         <f>AVERAGE(B23,C23,D23,E23)</f>
-        <v>#DIV/0!</v>
+        <v>1.5919465000000002</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
-      <c r="F24" t="e">
+      <c r="B24">
+        <v>0.910999</v>
+      </c>
+      <c r="C24">
+        <v>0.75477300000000003</v>
+      </c>
+      <c r="D24">
+        <v>0.84723099999999996</v>
+      </c>
+      <c r="E24">
+        <v>0.83689899999999995</v>
+      </c>
+      <c r="F24">
         <f>AVERAGE(B24,C24,D24,E24)</f>
-        <v>#DIV/0!</v>
+        <v>0.83747549999999993</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,5 +4232,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>